--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 2024-08-01 - 2024-08-31.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 2024-08-01 - 2024-08-31.xlsx
@@ -8,10 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="CHI TIẾT DOANH THU" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CHI TIẾT CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CHI TIÊU TỔNG HỢP" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="LŨY KẾ NGÀY" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CHI TIẾT VỀ THU NỢ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CHI TIẾT CHI TIÊU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CHI TIÊU TỔNG HỢP" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="QUỸ LƯƠNG" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="LỢI NHUẬN" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,50 +541,222 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>614</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Trần Nguyễn Yến Linh</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>615</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Mỹ Duyên</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -612,12 +787,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã chi tiêu</t>
+          <t>Mã đơn thu nợ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ngày chi</t>
+          <t>Ngày thu</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -627,12 +802,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Phân loại</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Lượng chi</t>
+          <t>Lượng thu</t>
         </is>
       </c>
     </row>
@@ -663,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,87 +849,131 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Nhân viên</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Tổng đơn giá sale vòng 1</t>
+          <t>Mã chi tiêu</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Tổng đơn giá vòng upsale</t>
+          <t>Ngày chi</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Doanh số đơn 1 bác sĩ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Doanh số đơn 2 bác sĩ</t>
+          <t>Phân loại</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Số lần phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Số lần phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Doanh số thu nợ</t>
+          <t>Lượng chi</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>742</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v/>
+      </c>
+      <c r="F2" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>743</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>749</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2143000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>7363000</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,33 +998,427 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Phân loại</t>
+          <t>Nhân viên</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Lượng chi</t>
+          <t>Tổng đơn giá sale vòng 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tổng đơn giá vòng upsale</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Doanh số đơn 1 bác sĩ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Doanh số đơn 2 bác sĩ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Số lần phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Số lần phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Doanh số thu nợ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng cộng</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>132600000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>48500000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>232600000</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +1432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,63 +1443,633 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày</t>
+          <t>Phân loại</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Số lượng đơn</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Thu nợ</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>Lượng chi</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Lũy kế ngày</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2143000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tổng cộng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7363000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Số lượng đơn</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lượng chi</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lũy kế ngày</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5220000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2143000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-2143000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7363000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>737000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Mã nhân viên</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tên nhân viên</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NV-11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>877142.8571428572</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NV-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>214285.7142857143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NV-29</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>335714.2857142857</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NV-33</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pen Design </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>142857.1428571429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NV-35</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Hường</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>428571.4285714286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NV-39</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NV-42</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cô Na giúp việc</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NV-5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1289428.571428571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NV-6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>308095.2380952381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NV-7</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>573214.2857142857</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NV-9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1141428.571428571</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NV-22</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NV-23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NV-30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NV-36</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NV-40</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NV-10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NV-16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NV-26</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NV-27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cô Siêng giúp Việc</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NV-38</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>5810738.095238094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Doanh thu</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tổng doanh thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Chi tiêu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Quỹ lương</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Tổng chi phí</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lợi nhuận</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ lợi nhuận</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8100000</v>
+      </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8100000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7363000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5810738.095238094</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13173738.09523809</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-5073738.095238093</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.6263874191651967</v>
       </c>
     </row>
   </sheetData>
